--- a/model.xlsx
+++ b/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>Compound Interest Calculator</t>
   </si>
   <si>
     <t>Deposit Frequency</t>
-  </si>
-  <si>
-    <t>Initial principal</t>
   </si>
   <si>
     <t>Years</t>
@@ -40,9 +37,6 @@
   </si>
   <si>
     <t>Annually</t>
-  </si>
-  <si>
-    <t>Annual interest rate(%)</t>
   </si>
   <si>
     <t>Compound Interest This Year</t>
@@ -75,16 +69,28 @@
     <t>Total Contribution</t>
   </si>
   <si>
-    <t>Annuanlly Compounding</t>
-  </si>
-  <si>
-    <t>Monthly Compounding</t>
-  </si>
-  <si>
     <t>Compounding Frequency:Yearly</t>
   </si>
   <si>
     <t>Compounding Frequency:Monthly</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuanlly </t>
+  </si>
+  <si>
+    <t>Quantity of Gaps</t>
+  </si>
+  <si>
+    <t>Monthly Calculated Periods</t>
+  </si>
+  <si>
+    <t>Annually Calculated Periods</t>
+  </si>
+  <si>
+    <t>Quantity of Deposits</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:W26"/>
+  <dimension ref="B1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -653,25 +659,25 @@
     </row>
     <row r="3" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>10000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2">
         <v>10000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
         <v>10000</v>
@@ -679,7 +685,7 @@
     </row>
     <row r="4" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -688,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2">
         <v>8</v>
@@ -705,48 +711,51 @@
     </row>
     <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <f>IF($E$4="Annually",1,IF($E$4="Monthly",12,IF($E$4="Fortnightly",26,IF($E$4="Weekly",52,IF($E$4="Daily",365)))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <f>IF($E$4="Annually",1,IF($E$4="Monthly",12,IF($E$4="Fortnightly",26,IF($E$4="Weekly",52,IF($E$4="Daily",365)))))</f>
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
-        <f>IF($C$6="Annually",1,IF($C$6="Monthly",12))</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <f>IF($E$4="Annually",365,IF($E$4="Monthly",30,IF($E$4="Fortnightly",14,IF($E$4="Weekly",7,IF($E$4="Daily",1)))))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
         <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <f>IF($E$4="Annually",1,IF($E$4="Monthly",1,IF($E$4="Fortnightly",2,IF($E$4="Weekly",4,IF($E$4="Daily",30)))))</f>
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,12 +763,12 @@
     </row>
     <row r="10" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -827,185 +836,185 @@
     </row>
     <row r="12" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="12">
-        <f>$C$3*(1)</f>
+        <f>$C$3</f>
         <v>10000</v>
       </c>
       <c r="D12" s="12">
-        <f>C$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>11711.618978817334</v>
+        <f>C$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>13162.68493150685</v>
       </c>
       <c r="E12" s="12">
-        <f>D$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>13510.807633041357</v>
+        <f t="shared" ref="E12:W12" si="0">D$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>16483.504109589041</v>
       </c>
       <c r="F12" s="12">
-        <f>E$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>15402.046193462764</v>
+        <f t="shared" si="0"/>
+        <v>19970.364246575344</v>
       </c>
       <c r="G12" s="12">
-        <f>F$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>17390.044107982445</v>
+        <f t="shared" si="0"/>
+        <v>23631.567390410961</v>
       </c>
       <c r="H12" s="12">
-        <f>G$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5+$G$3</f>
-        <v>29479.751768793882</v>
+        <f>G$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))+$G$3</f>
+        <v>37475.830691438357</v>
       </c>
       <c r="I12" s="12">
-        <f>H$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>32187.991818367766</v>
+        <f t="shared" si="0"/>
+        <v>42012.307157517127</v>
       </c>
       <c r="J12" s="12">
-        <f>I$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>35034.790568797165</v>
+        <f t="shared" si="0"/>
+        <v>46775.607446899834</v>
       </c>
       <c r="K12" s="12">
-        <f>J$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5+$I$3</f>
-        <v>48027.236946185883</v>
+        <f>J$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))+$I$3</f>
+        <v>61777.072750751671</v>
       </c>
       <c r="L12" s="12">
-        <f>K$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>51684.40153836846</v>
+        <f t="shared" si="0"/>
+        <v>67528.611319796109</v>
       </c>
       <c r="M12" s="12">
-        <f>L$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>55528.673611952974</v>
+        <f t="shared" si="0"/>
+        <v>73567.726817292772</v>
       </c>
       <c r="N12" s="12">
-        <f>M$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>59569.62594079582</v>
+        <f t="shared" si="0"/>
+        <v>79908.798089664269</v>
       </c>
       <c r="O12" s="12">
-        <f>N$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>63817.321060031878</v>
+        <f t="shared" si="0"/>
+        <v>86566.922925654333</v>
       </c>
       <c r="P12" s="12">
-        <f>O$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>68282.336323191019</v>
+        <f t="shared" si="0"/>
+        <v>93557.954003443912</v>
       </c>
       <c r="Q12" s="12">
-        <f>P$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>72975.790241284296</v>
+        <f t="shared" si="0"/>
+        <v>100898.53663512296</v>
       </c>
       <c r="R12" s="12">
-        <f>Q$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>77909.370169447677</v>
+        <f t="shared" si="0"/>
+        <v>108606.14839838597</v>
       </c>
       <c r="S12" s="12">
-        <f>R$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>83095.36141008712</v>
+        <f t="shared" si="0"/>
+        <v>116699.14074981213</v>
       </c>
       <c r="T12" s="12">
-        <f>S$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>88546.677804995736</v>
+        <f t="shared" si="0"/>
+        <v>125196.7827188096</v>
       </c>
       <c r="U12" s="12">
-        <f>T$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>94276.89389262168</v>
+        <f t="shared" si="0"/>
+        <v>134119.30678625693</v>
       </c>
       <c r="V12" s="12">
-        <f>U$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>100300.27871056301</v>
+        <f t="shared" si="0"/>
+        <v>143487.95705707662</v>
       </c>
       <c r="W12" s="12">
-        <f>V$12*(1+($C$4*0.01/$E$5))^(1*$E$5)+$E$3*$E$5</f>
-        <v>106631.83132746223</v>
+        <f t="shared" si="0"/>
+        <v>153325.0398414373</v>
       </c>
     </row>
     <row r="13" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="12">
         <f>SUM(C14:C16)</f>
         <v>10000</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" ref="D13:W13" si="0">SUM(D14:D16)</f>
-        <v>11200</v>
+        <f t="shared" ref="D13:W13" si="1">SUM(D14:D16)</f>
+        <v>12600</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>12400</v>
+        <f t="shared" si="1"/>
+        <v>15200</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>13600</v>
+        <f t="shared" si="1"/>
+        <v>17800</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>14800</v>
+        <f t="shared" si="1"/>
+        <v>20400</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>26000</v>
+        <f t="shared" si="1"/>
+        <v>33000</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="0"/>
-        <v>27200</v>
+        <f t="shared" si="1"/>
+        <v>35600</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="0"/>
-        <v>28400</v>
+        <f t="shared" si="1"/>
+        <v>38200</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" si="0"/>
-        <v>39600</v>
+        <f t="shared" si="1"/>
+        <v>50800</v>
       </c>
       <c r="L13" s="12">
-        <f t="shared" si="0"/>
-        <v>40800</v>
+        <f t="shared" si="1"/>
+        <v>53400</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="0"/>
-        <v>42000</v>
+        <f t="shared" si="1"/>
+        <v>56000</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" si="0"/>
-        <v>43200</v>
+        <f t="shared" si="1"/>
+        <v>58600</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="0"/>
-        <v>44400</v>
+        <f t="shared" si="1"/>
+        <v>61200</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="0"/>
-        <v>45600</v>
+        <f t="shared" si="1"/>
+        <v>63800</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="0"/>
-        <v>46800</v>
+        <f t="shared" si="1"/>
+        <v>66400</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" si="0"/>
-        <v>48000</v>
+        <f t="shared" si="1"/>
+        <v>69000</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" si="0"/>
-        <v>49200</v>
+        <f t="shared" si="1"/>
+        <v>71600</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="0"/>
-        <v>50400</v>
+        <f t="shared" si="1"/>
+        <v>74200</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="0"/>
-        <v>51600</v>
+        <f t="shared" si="1"/>
+        <v>76800</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" si="0"/>
-        <v>52800</v>
+        <f t="shared" si="1"/>
+        <v>79400</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="0"/>
-        <v>54000</v>
+        <f t="shared" si="1"/>
+        <v>82000</v>
       </c>
     </row>
     <row r="14" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12">
         <f>$C$3</f>
@@ -1016,173 +1025,173 @@
         <v>10000</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" ref="E14:W14" si="1">$C$3</f>
+        <f t="shared" ref="E14:W14" si="2">$C$3</f>
         <v>10000</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="Q14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="R14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <f>$E$3*$E$5*D$11</f>
-        <v>1200</v>
+        <f>$E$3*$E$6*D$11</f>
+        <v>2600</v>
       </c>
       <c r="E15" s="12">
-        <f>$E$3*$E$5*E$11</f>
-        <v>2400</v>
+        <f t="shared" ref="E15:W15" si="3">$E$3*$E$6*E$11</f>
+        <v>5200</v>
       </c>
       <c r="F15" s="12">
-        <f>$E$3*$E$5*F$11</f>
-        <v>3600</v>
+        <f t="shared" si="3"/>
+        <v>7800</v>
       </c>
       <c r="G15" s="12">
-        <f>$E$3*$E$5*G$11</f>
-        <v>4800</v>
+        <f t="shared" si="3"/>
+        <v>10400</v>
       </c>
       <c r="H15" s="12">
-        <f>$E$3*$E$5*H$11</f>
-        <v>6000</v>
+        <f t="shared" si="3"/>
+        <v>13000</v>
       </c>
       <c r="I15" s="12">
-        <f>$E$3*$E$5*I$11</f>
-        <v>7200</v>
+        <f t="shared" si="3"/>
+        <v>15600</v>
       </c>
       <c r="J15" s="12">
-        <f>$E$3*$E$5*J$11</f>
-        <v>8400</v>
+        <f t="shared" si="3"/>
+        <v>18200</v>
       </c>
       <c r="K15" s="12">
-        <f>$E$3*$E$5*K$11</f>
-        <v>9600</v>
+        <f t="shared" si="3"/>
+        <v>20800</v>
       </c>
       <c r="L15" s="12">
-        <f>$E$3*$E$5*L$11</f>
-        <v>10800</v>
+        <f t="shared" si="3"/>
+        <v>23400</v>
       </c>
       <c r="M15" s="12">
-        <f>$E$3*$E$5*M$11</f>
-        <v>12000</v>
+        <f t="shared" si="3"/>
+        <v>26000</v>
       </c>
       <c r="N15" s="12">
-        <f>$E$3*$E$5*N$11</f>
-        <v>13200</v>
+        <f t="shared" si="3"/>
+        <v>28600</v>
       </c>
       <c r="O15" s="12">
-        <f>$E$3*$E$5*O$11</f>
-        <v>14400</v>
+        <f t="shared" si="3"/>
+        <v>31200</v>
       </c>
       <c r="P15" s="12">
-        <f>$E$3*$E$5*P$11</f>
-        <v>15600</v>
+        <f t="shared" si="3"/>
+        <v>33800</v>
       </c>
       <c r="Q15" s="12">
-        <f>$E$3*$E$5*Q$11</f>
-        <v>16800</v>
+        <f t="shared" si="3"/>
+        <v>36400</v>
       </c>
       <c r="R15" s="12">
-        <f>$E$3*$E$5*R$11</f>
-        <v>18000</v>
+        <f t="shared" si="3"/>
+        <v>39000</v>
       </c>
       <c r="S15" s="12">
-        <f>$E$3*$E$5*S$11</f>
-        <v>19200</v>
+        <f t="shared" si="3"/>
+        <v>41600</v>
       </c>
       <c r="T15" s="12">
-        <f>$E$3*$E$5*T$11</f>
-        <v>20400</v>
+        <f t="shared" si="3"/>
+        <v>44200</v>
       </c>
       <c r="U15" s="12">
-        <f>$E$3*$E$5*U$11</f>
-        <v>21600</v>
+        <f t="shared" si="3"/>
+        <v>46800</v>
       </c>
       <c r="V15" s="12">
-        <f>$E$3*$E$5*V$11</f>
-        <v>22800</v>
+        <f t="shared" si="3"/>
+        <v>49400</v>
       </c>
       <c r="W15" s="12">
-        <f>$E$3*$E$5*W$11</f>
-        <v>24000</v>
+        <f t="shared" si="3"/>
+        <v>52000</v>
       </c>
     </row>
     <row r="16" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -1192,15 +1201,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" ref="E16:G16" si="2">D16</f>
+        <f t="shared" ref="E16:G16" si="4">D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16" s="12">
@@ -1212,7 +1221,7 @@
         <v>10000</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" ref="J16" si="3">I16</f>
+        <f t="shared" ref="J16" si="5">I16</f>
         <v>10000</v>
       </c>
       <c r="K16" s="12">
@@ -1224,53 +1233,53 @@
         <v>20000</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" ref="M16:W16" si="4">L16</f>
+        <f t="shared" ref="M16:W16" si="6">L16</f>
         <v>20000</v>
       </c>
       <c r="N16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="O16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="Q16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="R16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="U16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="V16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
     </row>
     <row r="17" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="16">
         <f>C12-C13</f>
@@ -1278,221 +1287,716 @@
       </c>
       <c r="D17" s="16">
         <f>D12-D13</f>
-        <v>511.61897881733421</v>
+        <v>562.68493150685026</v>
       </c>
       <c r="E17" s="16">
         <f>E12-E13</f>
-        <v>1110.8076330413569</v>
+        <v>1283.504109589041</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" ref="F17:W17" si="5">F12-F13</f>
-        <v>1802.0461934627638</v>
+        <f t="shared" ref="F17:W17" si="7">F12-F13</f>
+        <v>2170.3642465753437</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="5"/>
-        <v>2590.044107982445</v>
+        <f t="shared" si="7"/>
+        <v>3231.5673904109608</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="5"/>
-        <v>3479.7517687938816</v>
+        <f t="shared" si="7"/>
+        <v>4475.8306914383575</v>
       </c>
       <c r="I17" s="16">
-        <f t="shared" si="5"/>
-        <v>4987.9918183677655</v>
+        <f t="shared" si="7"/>
+        <v>6412.3071575171271</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="5"/>
-        <v>6634.7905687971652</v>
+        <f t="shared" si="7"/>
+        <v>8575.607446899834</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="5"/>
-        <v>8427.2369461858834</v>
+        <f t="shared" si="7"/>
+        <v>10977.072750751671</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="5"/>
-        <v>10884.40153836846</v>
+        <f t="shared" si="7"/>
+        <v>14128.611319796109</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="5"/>
-        <v>13528.673611952974</v>
+        <f t="shared" si="7"/>
+        <v>17567.726817292772</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="5"/>
-        <v>16369.62594079582</v>
+        <f t="shared" si="7"/>
+        <v>21308.798089664269</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="5"/>
-        <v>19417.321060031878</v>
+        <f t="shared" si="7"/>
+        <v>25366.922925654333</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="5"/>
-        <v>22682.336323191019</v>
+        <f t="shared" si="7"/>
+        <v>29757.954003443912</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="5"/>
-        <v>26175.790241284296</v>
+        <f t="shared" si="7"/>
+        <v>34498.53663512296</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="5"/>
-        <v>29909.370169447677</v>
+        <f t="shared" si="7"/>
+        <v>39606.148398385965</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="5"/>
-        <v>33895.36141008712</v>
+        <f t="shared" si="7"/>
+        <v>45099.140749812126</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="5"/>
-        <v>38146.677804995736</v>
+        <f t="shared" si="7"/>
+        <v>50996.782718809598</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" si="5"/>
-        <v>42676.89389262168</v>
+        <f t="shared" si="7"/>
+        <v>57319.30678625693</v>
       </c>
       <c r="V17" s="16">
-        <f t="shared" si="5"/>
-        <v>47500.278710563012</v>
+        <f t="shared" si="7"/>
+        <v>64087.957057076623</v>
       </c>
       <c r="W17" s="16">
-        <f t="shared" si="5"/>
-        <v>52631.831327462234</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>71325.039841437305</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7</v>
+      </c>
+      <c r="K21" s="2">
+        <v>8</v>
+      </c>
+      <c r="L21" s="2">
+        <v>9</v>
+      </c>
+      <c r="M21" s="2">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2">
+        <v>11</v>
+      </c>
+      <c r="O21" s="2">
+        <v>12</v>
+      </c>
+      <c r="P21" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>14</v>
+      </c>
+      <c r="R21" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>6</v>
-      </c>
-      <c r="J20" s="2">
-        <v>7</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="S21" s="2">
+        <v>16</v>
+      </c>
+      <c r="T21" s="2">
+        <v>17</v>
+      </c>
+      <c r="U21" s="2">
+        <v>18</v>
+      </c>
+      <c r="V21" s="2">
+        <v>19</v>
+      </c>
+      <c r="W21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="2">
-        <v>9</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="C22" s="12">
+        <f>$C$3</f>
+        <v>10000</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>13174.303910324183</v>
+      </c>
+      <c r="E22" s="12">
+        <f>D$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>16511.01123315396</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>20018.430835295589</v>
+      </c>
+      <c r="G22" s="12">
+        <f>F$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>23705.296680950374</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))+$G$3</f>
+        <v>37580.789580504206</v>
+      </c>
+      <c r="I22" s="12">
+        <f>H$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>42166.179030843719</v>
+      </c>
+      <c r="J22" s="12">
+        <f>I$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>46986.165707989479</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))+I$3</f>
+        <v>62052.75205130269</v>
+      </c>
+      <c r="L22" s="12">
+        <f>K$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>67890.173546538819</v>
+      </c>
+      <c r="M22" s="12">
+        <f>L$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>74026.248604206849</v>
+      </c>
+      <c r="N22" s="12">
+        <f>M$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>80476.256907369941</v>
+      </c>
+      <c r="O22" s="12">
+        <f>N$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>87256.259876675802</v>
+      </c>
+      <c r="P22" s="12">
+        <f>O$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>94383.140665535131</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>P$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>101874.64620152938</v>
+      </c>
+      <c r="R22" s="12">
+        <f>Q$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>109749.4313787366</v>
+      </c>
+      <c r="S22" s="12">
+        <f>R$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>118027.10551102068</v>
+      </c>
+      <c r="T22" s="12">
+        <f>S$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>126728.28116195895</v>
+      </c>
+      <c r="U22" s="12">
+        <f>T$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>135874.62547300154</v>
+      </c>
+      <c r="V22" s="12">
+        <f>U$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>145488.91411767685</v>
+      </c>
+      <c r="W22" s="12">
+        <f>V$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <v>155595.08801619656</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="12">
+        <f>SUM(C24:C26)</f>
+        <v>10000</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:W23" si="8">SUM(D24:D26)</f>
+        <v>12600</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="8"/>
+        <v>15200</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="8"/>
+        <v>17800</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="8"/>
+        <v>20400</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="8"/>
+        <v>33000</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="8"/>
+        <v>35600</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="8"/>
+        <v>38200</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="8"/>
+        <v>50800</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="8"/>
+        <v>53400</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="8"/>
+        <v>56000</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="8"/>
+        <v>58600</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="8"/>
+        <v>61200</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="8"/>
+        <v>63800</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="8"/>
+        <v>66400</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="8"/>
+        <v>69000</v>
+      </c>
+      <c r="S23" s="12">
+        <f t="shared" si="8"/>
+        <v>71600</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="8"/>
+        <v>74200</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="8"/>
+        <v>76800</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" si="8"/>
+        <v>79400</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="8"/>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="2">
-        <v>11</v>
-      </c>
-      <c r="O20" s="2">
-        <v>12</v>
-      </c>
-      <c r="P20" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>14</v>
-      </c>
-      <c r="R20" s="2">
-        <v>15</v>
-      </c>
-      <c r="S20" s="2">
-        <v>16</v>
-      </c>
-      <c r="T20" s="2">
-        <v>17</v>
-      </c>
-      <c r="U20" s="2">
-        <v>18</v>
-      </c>
-      <c r="V20" s="2">
-        <v>19</v>
-      </c>
-      <c r="W20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12">
-        <f>$C$3*(1)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="12">
-        <f>SUM(C23:C25)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="C24" s="12">
         <f>$C$3</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
       <c r="D24" s="12">
-        <f>$E$3*(((1+$C$4*0.01/$C$7)^$C$7)-1)/($C$4*0.01/$C$7)</f>
-        <v>1227.8855491616021</v>
+        <f t="shared" ref="D24:W24" si="9">$C$3</f>
+        <v>10000</v>
       </c>
       <c r="E24" s="12">
-        <f>D24*(((1+$C$4/$C$7)^$C$7)-1)/($C$4/$C$7)</f>
-        <v>189619.79504135263</v>
+        <f t="shared" si="9"/>
+        <v>10000</v>
       </c>
       <c r="F24" s="12">
-        <f>E24*(((1+$C$4/$C$7)^$C$7)-1)/($C$4/$C$7)</f>
-        <v>29282588.019767024</v>
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="S24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="V24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="9"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="16">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
         <v>0</v>
       </c>
+      <c r="D25" s="12">
+        <f>$E$3*$E$6*D$11</f>
+        <v>2600</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" ref="E25:W25" si="10">$E$3*$E$6*E$11</f>
+        <v>5200</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="10"/>
+        <v>7800</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="10"/>
+        <v>10400</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="10"/>
+        <v>13000</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="10"/>
+        <v>15600</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="10"/>
+        <v>18200</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="10"/>
+        <v>20800</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="10"/>
+        <v>23400</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="10"/>
+        <v>26000</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="10"/>
+        <v>28600</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="10"/>
+        <v>31200</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="10"/>
+        <v>33800</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="10"/>
+        <v>36400</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="10"/>
+        <v>39000</v>
+      </c>
+      <c r="S25" s="12">
+        <f t="shared" si="10"/>
+        <v>41600</v>
+      </c>
+      <c r="T25" s="12">
+        <f t="shared" si="10"/>
+        <v>44200</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="10"/>
+        <v>46800</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" si="10"/>
+        <v>49400</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="10"/>
+        <v>52000</v>
+      </c>
     </row>
     <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="16"/>
+      <c r="B26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" ref="E26:G26" si="11">D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <f>$G$3</f>
+        <v>10000</v>
+      </c>
+      <c r="I26" s="12">
+        <f>H26</f>
+        <v>10000</v>
+      </c>
+      <c r="J26" s="12">
+        <f>I26</f>
+        <v>10000</v>
+      </c>
+      <c r="K26" s="12">
+        <f>J26+$I$3</f>
+        <v>20000</v>
+      </c>
+      <c r="L26" s="12">
+        <f>K26</f>
+        <v>20000</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" ref="M26:W26" si="12">L26</f>
+        <v>20000</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="S26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="T26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="V26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C22-C23</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" ref="D27:W27" si="13">D22-D23</f>
+        <v>574.30391032418265</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="13"/>
+        <v>1311.0112331539603</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="13"/>
+        <v>2218.4308352955886</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="13"/>
+        <v>3305.2966809503741</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="13"/>
+        <v>4580.7895805042062</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="13"/>
+        <v>6566.1790308437194</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="13"/>
+        <v>8786.1657079894794</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="13"/>
+        <v>11252.75205130269</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="13"/>
+        <v>14490.173546538819</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="13"/>
+        <v>18026.248604206849</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="13"/>
+        <v>21876.256907369941</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="13"/>
+        <v>26056.259876675802</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="13"/>
+        <v>30583.140665535131</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="13"/>
+        <v>35474.64620152938</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" si="13"/>
+        <v>40749.431378736597</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="13"/>
+        <v>46427.10551102068</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="13"/>
+        <v>52528.281161958948</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="13"/>
+        <v>59074.625473001535</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="13"/>
+        <v>66088.914117676846</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="13"/>
+        <v>73595.088016196562</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
     </dataValidation>
@@ -1511,90 +2015,899 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="B1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="6.85546875" style="2"/>
+    <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="22" width="15" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="6.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="3" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <f>IF($E$4="Annually",1,IF($E$4="Monthly",12,IF($E$4="Fortnightly",26,IF($E$4="Weekly",52,IF($E$4="Daily",365)))))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
         <f>IF($C$6="Annually",1,IF($C$6="Monthly",12))</f>
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <f>IF($E$4="Annually",365,IF($E$4="Monthly",30,IF($E$4="Fortnightly",14,IF($E$4="Weekly",7,IF($E$4="Daily",1)))))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="L11" s="4">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4">
+        <v>12</v>
+      </c>
+      <c r="P11" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>14</v>
+      </c>
+      <c r="R11" s="4">
+        <v>15</v>
+      </c>
+      <c r="S11" s="4">
+        <v>16</v>
+      </c>
+      <c r="T11" s="4">
+        <v>17</v>
+      </c>
+      <c r="U11" s="4">
+        <v>18</v>
+      </c>
+      <c r="V11" s="4">
+        <v>19</v>
+      </c>
+      <c r="W11" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <f>$C$3</f>
+        <v>10000</v>
+      </c>
+      <c r="D12" s="12">
+        <f>C$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*$E$6</f>
+        <v>13111.618978817334</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" ref="E12:W12" si="0">D$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*$E$6</f>
+        <v>16382.434290075784</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>19820.590720278848</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>23434.649758665386</v>
+      </c>
+      <c r="H12" s="12">
+        <f>G$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*$E$6+$G$3</f>
+        <v>37233.610916512414</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>41738.553115991221</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>46473.976708242866</v>
+      </c>
+      <c r="K12" s="12">
+        <f>J$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*$E$6+$I$3</f>
+        <v>61451.673558748043</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>67195.657806022326</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="0"/>
+        <v>73233.515188789941</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="0"/>
+        <v>79580.280814399186</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="0"/>
+        <v>86251.759014825147</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="0"/>
+        <v>93264.562701661518</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="0"/>
+        <v>100636.15473458845</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="0"/>
+        <v>108384.89140632979</v>
+      </c>
+      <c r="S12" s="12">
+        <f t="shared" si="0"/>
+        <v>116530.0681523832</v>
+      </c>
+      <c r="T12" s="12">
+        <f t="shared" si="0"/>
+        <v>125091.96759934687</v>
+      </c>
+      <c r="U12" s="12">
+        <f t="shared" si="0"/>
+        <v>134091.91007148975</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="0"/>
+        <v>143552.3066813339</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="0"/>
+        <v>153496.71513645159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12">
+        <f>SUM(C14:C16)</f>
+        <v>10000</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:W13" si="1">SUM(D14:D16)</f>
+        <v>12600</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="1"/>
+        <v>15200</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>17800</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>20400</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
+        <v>35600</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>38200</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="1"/>
+        <v>50800</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="1"/>
+        <v>53400</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="1"/>
+        <v>58600</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="1"/>
+        <v>61200</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="1"/>
+        <v>63800</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="1"/>
+        <v>66400</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="1"/>
+        <v>69000</v>
+      </c>
+      <c r="S13" s="12">
+        <f t="shared" si="1"/>
+        <v>71600</v>
+      </c>
+      <c r="T13" s="12">
+        <f t="shared" si="1"/>
+        <v>74200</v>
+      </c>
+      <c r="U13" s="12">
+        <f t="shared" si="1"/>
+        <v>76800</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" si="1"/>
+        <v>79400</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="1"/>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <f>$C$3</f>
+        <v>10000</v>
+      </c>
+      <c r="D14" s="12">
+        <f>$C$3</f>
+        <v>10000</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14:W14" si="2">$C$3</f>
+        <v>10000</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="S14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="U14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f>$E$3*$E$6*D$11</f>
+        <v>2600</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" ref="E15:W15" si="3">$E$3*$E$6*E$11</f>
+        <v>5200</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="3"/>
+        <v>10400</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="3"/>
+        <v>18200</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="3"/>
+        <v>20800</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="3"/>
+        <v>23400</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="3"/>
+        <v>26000</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="3"/>
+        <v>28600</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="3"/>
+        <v>31200</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="3"/>
+        <v>33800</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="3"/>
+        <v>36400</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="3"/>
+        <v>39000</v>
+      </c>
+      <c r="S15" s="12">
+        <f t="shared" si="3"/>
+        <v>41600</v>
+      </c>
+      <c r="T15" s="12">
+        <f t="shared" si="3"/>
+        <v>44200</v>
+      </c>
+      <c r="U15" s="12">
+        <f t="shared" si="3"/>
+        <v>46800</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" si="3"/>
+        <v>49400</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="3"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" ref="E16:G16" si="4">D16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <f>$G$3</f>
+        <v>10000</v>
+      </c>
+      <c r="I16" s="12">
+        <f>H16</f>
+        <v>10000</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" ref="J16" si="5">I16</f>
+        <v>10000</v>
+      </c>
+      <c r="K16" s="12">
+        <f>J16+$I$3</f>
+        <v>20000</v>
+      </c>
+      <c r="L16" s="12">
+        <f>K16</f>
+        <v>20000</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16:W16" si="6">L16</f>
+        <v>20000</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="T16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="U16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C12-C13</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <f>D12-D13</f>
+        <v>511.61897881733421</v>
+      </c>
+      <c r="E17" s="16">
+        <f>E12-E13</f>
+        <v>1182.4342900757838</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" ref="F17:W17" si="7">F12-F13</f>
+        <v>2020.5907202788476</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="7"/>
+        <v>3034.6497586653859</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="7"/>
+        <v>4233.6109165124144</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="7"/>
+        <v>6138.5531159912207</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="7"/>
+        <v>8273.9767082428662</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="7"/>
+        <v>10651.673558748043</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="7"/>
+        <v>13795.657806022326</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="7"/>
+        <v>17233.515188789941</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="7"/>
+        <v>20980.280814399186</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="7"/>
+        <v>25051.759014825147</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="7"/>
+        <v>29464.562701661518</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="7"/>
+        <v>34236.154734588446</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="7"/>
+        <v>39384.891406329785</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="7"/>
+        <v>44930.068152383203</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="7"/>
+        <v>50891.96759934687</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="7"/>
+        <v>57291.91007148975</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="7"/>
+        <v>64152.306681333896</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="7"/>
+        <v>71496.715136451588</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4">
         <v>7</v>
       </c>
+      <c r="K20" s="4">
+        <v>8</v>
+      </c>
+      <c r="L20" s="4">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4">
+        <v>10</v>
+      </c>
+      <c r="N20" s="4">
+        <v>11</v>
+      </c>
+      <c r="O20" s="4">
+        <v>12</v>
+      </c>
+      <c r="P20" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>14</v>
+      </c>
+      <c r="R20" s="4">
+        <v>15</v>
+      </c>
+      <c r="S20" s="4">
+        <v>16</v>
+      </c>
+      <c r="T20" s="4">
+        <v>17</v>
+      </c>
+      <c r="U20" s="4">
+        <v>18</v>
+      </c>
+      <c r="V20" s="4">
+        <v>19</v>
+      </c>
+      <c r="W20" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12">
+        <f>$C$3</f>
+        <v>10000</v>
+      </c>
+      <c r="D21" s="12">
+        <f>C$21*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*(((1+$C$4*0.01/$C$7)^$C$7)-1)/($C$4*0.01/$C$7)</f>
+        <v>11739.504527978936</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12">
+        <f>SUM(C23:C25)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12">
+        <f>$C$3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <f>$E$3*(((1+$C$4*0.01/$C$7)^$C$7)-1)/($C$4*0.01/$C$7)</f>
+        <v>1227.8855491616021</v>
+      </c>
+      <c r="E24" s="12">
+        <f>D24*(((1+$C$4/$C$7)^$C$7)-1)/($C$4/$C$7)</f>
+        <v>189619.79504135263</v>
+      </c>
+      <c r="F24" s="12">
+        <f>E24*(((1+$C$4/$C$7)^$C$7)-1)/($C$4/$C$7)</f>
+        <v>29282588.019767024</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
-  </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>"Annually,Monthly"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>"Annually,Monthly,Fortnightly,Weekly,Daily"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model.xlsx
+++ b/model.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="B1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1504,51 +1504,51 @@
         <v>62052.75205130269</v>
       </c>
       <c r="L22" s="12">
-        <f>K$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" ref="L22:W22" si="8">K$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
         <v>67890.173546538819</v>
       </c>
       <c r="M22" s="12">
-        <f>L$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>74026.248604206849</v>
       </c>
       <c r="N22" s="12">
-        <f>M$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>80476.256907369941</v>
       </c>
       <c r="O22" s="12">
-        <f>N$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>87256.259876675802</v>
       </c>
       <c r="P22" s="12">
-        <f>O$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>94383.140665535131</v>
       </c>
       <c r="Q22" s="12">
-        <f>P$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>101874.64620152938</v>
       </c>
       <c r="R22" s="12">
-        <f>Q$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>109749.4313787366</v>
       </c>
       <c r="S22" s="12">
-        <f>R$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>118027.10551102068</v>
       </c>
       <c r="T22" s="12">
-        <f>S$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>126728.28116195895</v>
       </c>
       <c r="U22" s="12">
-        <f>T$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>135874.62547300154</v>
       </c>
       <c r="V22" s="12">
-        <f>U$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>145488.91411767685</v>
       </c>
       <c r="W22" s="12">
-        <f>V$22*(1+($C$4*0.01/$C$8))^(1*$C$8)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
+        <f t="shared" si="8"/>
         <v>155595.08801619656</v>
       </c>
     </row>
@@ -1561,83 +1561,83 @@
         <v>10000</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" ref="D23:W23" si="8">SUM(D24:D26)</f>
+        <f t="shared" ref="D23:W23" si="9">SUM(D24:D26)</f>
         <v>12600</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15200</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17800</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20400</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33000</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35600</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38200</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50800</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53400</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56000</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58600</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61200</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63800</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66400</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69000</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71600</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74200</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76800</v>
       </c>
       <c r="V23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79400</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>82000</v>
       </c>
     </row>
@@ -1650,83 +1650,83 @@
         <v>10000</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" ref="D24:W24" si="9">$C$3</f>
+        <f t="shared" ref="D24:W24" si="10">$C$3</f>
         <v>10000</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="Q24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="R24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="T24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="U24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="V24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
     </row>
@@ -1742,79 +1742,79 @@
         <v>2600</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" ref="E25:W25" si="10">$E$3*$E$6*E$11</f>
+        <f t="shared" ref="E25:W25" si="11">$E$3*$E$6*E$11</f>
         <v>5200</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10400</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13000</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15600</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18200</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20800</v>
       </c>
       <c r="L25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23400</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26000</v>
       </c>
       <c r="N25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28600</v>
       </c>
       <c r="O25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31200</v>
       </c>
       <c r="P25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33800</v>
       </c>
       <c r="Q25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36400</v>
       </c>
       <c r="R25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39000</v>
       </c>
       <c r="S25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41600</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44200</v>
       </c>
       <c r="U25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46800</v>
       </c>
       <c r="V25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>49400</v>
       </c>
       <c r="W25" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52000</v>
       </c>
     </row>
@@ -1830,15 +1830,15 @@
         <v>0</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" ref="E26:G26" si="11">D26</f>
+        <f t="shared" ref="E26:G26" si="12">D26</f>
         <v>0</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H26" s="12">
@@ -1862,47 +1862,47 @@
         <v>20000</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" ref="M26:W26" si="12">L26</f>
+        <f t="shared" ref="M26:W26" si="13">L26</f>
         <v>20000</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="P26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="Q26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="R26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="T26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="U26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="V26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
     </row>
@@ -1915,83 +1915,83 @@
         <v>0</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" ref="D27:W27" si="13">D22-D23</f>
+        <f t="shared" ref="D27:W27" si="14">D22-D23</f>
         <v>574.30391032418265</v>
       </c>
       <c r="E27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1311.0112331539603</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2218.4308352955886</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3305.2966809503741</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4580.7895805042062</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6566.1790308437194</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8786.1657079894794</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11252.75205130269</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14490.173546538819</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18026.248604206849</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21876.256907369941</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26056.259876675802</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30583.140665535131</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>35474.64620152938</v>
       </c>
       <c r="R27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40749.431378736597</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46427.10551102068</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>52528.281161958948</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>59074.625473001535</v>
       </c>
       <c r="V27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>66088.914117676846</v>
       </c>
       <c r="W27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>73595.088016196562</v>
       </c>
     </row>

--- a/model.xlsx
+++ b/model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>Compound Interest Calculator</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Monthly</t>
-  </si>
-  <si>
-    <t>Annually</t>
   </si>
   <si>
     <t>Compound Interest This Year</t>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>Monthly Calculated Periods</t>
-  </si>
-  <si>
-    <t>Annually Calculated Periods</t>
   </si>
   <si>
     <t>Quantity of Deposits</t>
@@ -617,7 +611,7 @@
   <dimension ref="B1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,25 +653,25 @@
     </row>
     <row r="3" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>10000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>10000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2">
         <v>10000</v>
@@ -685,7 +679,7 @@
     </row>
     <row r="4" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -694,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
         <v>8</v>
@@ -725,10 +719,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <f>IF($E$4="Annually",1,IF($E$4="Monthly",12,IF($E$4="Fortnightly",26,IF($E$4="Weekly",52,IF($E$4="Daily",365)))))</f>
@@ -737,13 +731,14 @@
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <f>IF($C$6="Annually",1,IF($C$6="Monthly",12))</f>
+        <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <f>IF($E$4="Annually",365,IF($E$4="Monthly",30,IF($E$4="Fortnightly",14,IF($E$4="Weekly",7,IF($E$4="Daily",1)))))</f>
@@ -752,7 +747,7 @@
     </row>
     <row r="8" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -763,12 +758,12 @@
     </row>
     <row r="10" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -836,7 +831,7 @@
     </row>
     <row r="12" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12">
         <f>$C$3</f>
@@ -844,88 +839,88 @@
       </c>
       <c r="D12" s="12">
         <f>C$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
-        <v>13162.68493150685</v>
+        <v>13174.303910324183</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" ref="E12:W12" si="0">D$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))</f>
-        <v>16483.504109589041</v>
+        <v>16511.01123315396</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>19970.364246575344</v>
+        <v>20018.430835295589</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>23631.567390410961</v>
+        <v>23705.296680950374</v>
       </c>
       <c r="H12" s="12">
         <f>G$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))+$G$3</f>
-        <v>37475.830691438357</v>
+        <v>37580.789580504206</v>
       </c>
       <c r="I12" s="12">
         <f t="shared" si="0"/>
-        <v>42012.307157517127</v>
+        <v>42166.179030843719</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>46775.607446899834</v>
+        <v>46986.165707989479</v>
       </c>
       <c r="K12" s="12">
         <f>J$12*(1+($C$4*0.01/$C$7))^(1*$C$7)+$E$3*($E$6+$C$4*0.01/365*(365*$E$6-$E$7*$E$6*($E$6+1)/2))+$I$3</f>
-        <v>61777.072750751671</v>
+        <v>62052.75205130269</v>
       </c>
       <c r="L12" s="12">
         <f t="shared" si="0"/>
-        <v>67528.611319796109</v>
+        <v>67890.173546538819</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="0"/>
-        <v>73567.726817292772</v>
+        <v>74026.248604206849</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="0"/>
-        <v>79908.798089664269</v>
+        <v>80476.256907369941</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="0"/>
-        <v>86566.922925654333</v>
+        <v>87256.259876675802</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="0"/>
-        <v>93557.954003443912</v>
+        <v>94383.140665535131</v>
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="0"/>
-        <v>100898.53663512296</v>
+        <v>101874.64620152938</v>
       </c>
       <c r="R12" s="12">
         <f t="shared" si="0"/>
-        <v>108606.14839838597</v>
+        <v>109749.4313787366</v>
       </c>
       <c r="S12" s="12">
         <f t="shared" si="0"/>
-        <v>116699.14074981213</v>
+        <v>118027.10551102068</v>
       </c>
       <c r="T12" s="12">
         <f t="shared" si="0"/>
-        <v>125196.7827188096</v>
+        <v>126728.28116195895</v>
       </c>
       <c r="U12" s="12">
         <f t="shared" si="0"/>
-        <v>134119.30678625693</v>
+        <v>135874.62547300154</v>
       </c>
       <c r="V12" s="12">
         <f t="shared" si="0"/>
-        <v>143487.95705707662</v>
+        <v>145488.91411767685</v>
       </c>
       <c r="W12" s="12">
         <f t="shared" si="0"/>
-        <v>153325.0398414373</v>
+        <v>155595.08801619656</v>
       </c>
     </row>
     <row r="13" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="12">
         <f>SUM(C14:C16)</f>
@@ -1014,7 +1009,7 @@
     </row>
     <row r="14" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="12">
         <f>$C$3</f>
@@ -1103,7 +1098,7 @@
     </row>
     <row r="15" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
@@ -1191,7 +1186,7 @@
     </row>
     <row r="16" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -1279,7 +1274,7 @@
     </row>
     <row r="17" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="16">
         <f>C12-C13</f>
@@ -1287,83 +1282,83 @@
       </c>
       <c r="D17" s="16">
         <f>D12-D13</f>
-        <v>562.68493150685026</v>
+        <v>574.30391032418265</v>
       </c>
       <c r="E17" s="16">
         <f>E12-E13</f>
-        <v>1283.504109589041</v>
+        <v>1311.0112331539603</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" ref="F17:W17" si="7">F12-F13</f>
-        <v>2170.3642465753437</v>
+        <v>2218.4308352955886</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="7"/>
-        <v>3231.5673904109608</v>
+        <v>3305.2966809503741</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="7"/>
-        <v>4475.8306914383575</v>
+        <v>4580.7895805042062</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="7"/>
-        <v>6412.3071575171271</v>
+        <v>6566.1790308437194</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="7"/>
-        <v>8575.607446899834</v>
+        <v>8786.1657079894794</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" si="7"/>
-        <v>10977.072750751671</v>
+        <v>11252.75205130269</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>14128.611319796109</v>
+        <v>14490.173546538819</v>
       </c>
       <c r="M17" s="16">
         <f t="shared" si="7"/>
-        <v>17567.726817292772</v>
+        <v>18026.248604206849</v>
       </c>
       <c r="N17" s="16">
         <f t="shared" si="7"/>
-        <v>21308.798089664269</v>
+        <v>21876.256907369941</v>
       </c>
       <c r="O17" s="16">
         <f t="shared" si="7"/>
-        <v>25366.922925654333</v>
+        <v>26056.259876675802</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="7"/>
-        <v>29757.954003443912</v>
+        <v>30583.140665535131</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="7"/>
-        <v>34498.53663512296</v>
+        <v>35474.64620152938</v>
       </c>
       <c r="R17" s="16">
         <f t="shared" si="7"/>
-        <v>39606.148398385965</v>
+        <v>40749.431378736597</v>
       </c>
       <c r="S17" s="16">
         <f t="shared" si="7"/>
-        <v>45099.140749812126</v>
+        <v>46427.10551102068</v>
       </c>
       <c r="T17" s="16">
         <f t="shared" si="7"/>
-        <v>50996.782718809598</v>
+        <v>52528.281161958948</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="7"/>
-        <v>57319.30678625693</v>
+        <v>59074.625473001535</v>
       </c>
       <c r="V17" s="16">
         <f t="shared" si="7"/>
-        <v>64087.957057076623</v>
+        <v>66088.914117676846</v>
       </c>
       <c r="W17" s="16">
         <f t="shared" si="7"/>
-        <v>71325.039841437305</v>
+        <v>73595.088016196562</v>
       </c>
     </row>
     <row r="18" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,12 +1387,12 @@
     </row>
     <row r="20" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1465,7 +1460,7 @@
     </row>
     <row r="22" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="12">
         <f>$C$3</f>
@@ -1554,7 +1549,7 @@
     </row>
     <row r="23" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="12">
         <f>SUM(C24:C26)</f>
@@ -1643,7 +1638,7 @@
     </row>
     <row r="24" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="12">
         <f>$C$3</f>
@@ -1732,7 +1727,7 @@
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -1820,7 +1815,7 @@
     </row>
     <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -1908,7 +1903,7 @@
     </row>
     <row r="27" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="16">
         <f>C22-C23</f>
@@ -1996,7 +1991,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
     </dataValidation>
@@ -2060,25 +2055,25 @@
     </row>
     <row r="3" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>10000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>10000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <v>10000</v>
@@ -2086,7 +2081,7 @@
     </row>
     <row r="4" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -2095,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4">
         <v>8</v>
@@ -2129,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <f>IF($E$4="Annually",1,IF($E$4="Monthly",12,IF($E$4="Fortnightly",26,IF($E$4="Weekly",52,IF($E$4="Daily",365)))))</f>
@@ -2145,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4">
         <f>IF($E$4="Annually",365,IF($E$4="Monthly",30,IF($E$4="Fortnightly",14,IF($E$4="Weekly",7,IF($E$4="Daily",1)))))</f>
@@ -2157,12 +2152,12 @@
     </row>
     <row r="10" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -2230,7 +2225,7 @@
     </row>
     <row r="12" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12">
         <f>$C$3</f>
@@ -2319,7 +2314,7 @@
     </row>
     <row r="13" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="12">
         <f>SUM(C14:C16)</f>
@@ -2408,7 +2403,7 @@
     </row>
     <row r="14" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="12">
         <f>$C$3</f>
@@ -2497,7 +2492,7 @@
     </row>
     <row r="15" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
@@ -2585,7 +2580,7 @@
     </row>
     <row r="16" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -2673,7 +2668,7 @@
     </row>
     <row r="17" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="16">
         <f>C12-C13</f>
@@ -2762,12 +2757,12 @@
     </row>
     <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -2835,7 +2830,7 @@
     </row>
     <row r="21" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="12">
         <f>$C$3</f>
@@ -2848,7 +2843,7 @@
     </row>
     <row r="22" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="12">
         <f>SUM(C23:C25)</f>
@@ -2857,7 +2852,7 @@
     </row>
     <row r="23" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="12">
         <f>$C$3</f>
@@ -2866,7 +2861,7 @@
     </row>
     <row r="24" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -2886,7 +2881,7 @@
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="16">
         <v>0</v>
@@ -2894,7 +2889,7 @@
     </row>
     <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="16"/>
     </row>
